--- a/SQL-Python-Git/SQL/SQL Project/3 - Plot/movie_category_percentile_counts.xlsx
+++ b/SQL-Python-Git/SQL/SQL Project/3 - Plot/movie_category_percentile_counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9df4817efbddffa/Documents/Ryan/Career Change/03. Data Science - Udacity/01. Python and SQL/SQL-Python-Git/SQL/SQL Project/3 - Plot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihscourse\Desktop\Data Science - Udacity\SQL-Python-Git\SQL\SQL Project\3 - Plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A57AA40-E5BB-4FAB-AB81-D97322B5E280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB15761-C6CB-4F9F-AB41-41E1E66112B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movie_category_percentile_count" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,6 +641,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>movie_category_percentile_count!$B$1:$E$1</c:f>
@@ -712,6 +770,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>movie_category_percentile_count!$B$1:$E$1</c:f>
@@ -783,6 +899,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>movie_category_percentile_count!$B$1:$E$1</c:f>
@@ -854,6 +1028,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>movie_category_percentile_count!$B$1:$E$1</c:f>
@@ -925,6 +1157,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>movie_category_percentile_count!$B$1:$E$1</c:f>
@@ -996,6 +1286,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>movie_category_percentile_count!$B$1:$E$1</c:f>
@@ -1044,8 +1392,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1063,6 +1412,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rental Quartiles by Rental</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Duration</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1128,6 +1537,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Rentals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2126,16 +2590,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +2633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2186,7 +2650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2203,7 +2667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2220,7 +2684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2237,7 +2701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
